--- a/tests/attendance_tracker/data/input.xlsx
+++ b/tests/attendance_tracker/data/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mito\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mito\Workspace\Cursor\mywork-tools\tests\attendance_tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7E90C-0A64-41AB-B590-FEB4B407F1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAA81C9-0BA5-4542-8030-ED4B528E7291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="21170" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21170" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timecard" sheetId="6" r:id="rId1"/>
@@ -406,6 +406,116 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="177" formatCode="h:mm;@"/>
       <fill>
         <patternFill patternType="solid">
@@ -515,116 +625,6 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ \(aaa\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -652,21 +652,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDF987DE-0A0A-4288-A5F5-B51C97C02664}" name="Timecard" displayName="Timecard" ref="A1:F239" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{EDF987DE-0A0A-4288-A5F5-B51C97C02664}" name="Timecard" displayName="Timecard" ref="A1:F239" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:F239" xr:uid="{CAFA5A17-F2A9-4529-883D-3E46B1B26123}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A6145489-54FE-401F-BBF6-3809782DB1C6}" name="日付" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{ADE71208-422C-4F09-ADA8-535830D59EF0}" name="祝日" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A6145489-54FE-401F-BBF6-3809782DB1C6}" name="日付" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{ADE71208-422C-4F09-ADA8-535830D59EF0}" name="祝日" dataDxfId="21">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Timecard[[#This Row],[日付]],Holiday!A:B,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A74C595A-2892-4ECC-A26A-48ECE0E61D62}" name="種別" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{A74C595A-2892-4ECC-A26A-48ECE0E61D62}" name="種別" dataDxfId="20">
       <calculatedColumnFormula>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","在宅","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E61221AF-E670-463F-92E6-D29255937523}" name="出社時間" dataDxfId="10">
+    <tableColumn id="10" xr3:uid="{E61221AF-E670-463F-92E6-D29255937523}" name="出社時間" dataDxfId="19">
       <calculatedColumnFormula>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","8:50","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C409E1C7-2DFA-43A7-9354-4803B694771C}" name="退社時間" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{143DBBE7-C866-46C4-9B77-85B8877132BC}" name="作業時間" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{C409E1C7-2DFA-43A7-9354-4803B694771C}" name="退社時間" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{143DBBE7-C866-46C4-9B77-85B8877132BC}" name="作業時間" dataDxfId="17">
       <calculatedColumnFormula>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"",IF(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] &lt;= TIME(8, 50, 0),  MIN(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] - TIME(0,45,0), TIME(7,45,0)), MAX(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] - TIME(0,55,0), TIME(7,45,0))), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -675,18 +675,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAFA5A17-F2A9-4529-883D-3E46B1B26123}" name="Schedule" displayName="Schedule" ref="A1:G65" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAFA5A17-F2A9-4529-883D-3E46B1B26123}" name="Schedule" displayName="Schedule" ref="A1:G65" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:G65" xr:uid="{CAFA5A17-F2A9-4529-883D-3E46B1B26123}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{46802C7C-A06B-4991-A327-E197DC692143}" name="日付" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{2202EAE0-30A1-481F-A3F2-AC74DFE6DE2B}" name="祝日" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{46802C7C-A06B-4991-A327-E197DC692143}" name="日付" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{2202EAE0-30A1-481F-A3F2-AC74DFE6DE2B}" name="祝日" dataDxfId="13">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Schedule[[#This Row],[日付]],Holiday!A:B,2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{51313E63-3082-4AE5-B2A4-6172E1FA06CA}" name="出社" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{915ED5FD-6845-4FF5-A223-96273FADB058}" name="昼休憩開始" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{DFC7CEB7-BD22-4E98-A3CE-289F69461296}" name="昼休憩終了" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{75904702-0EF5-462B-8E04-AA40ECC56778}" name="超勤申請" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{CF5D3A8D-8568-4AC0-9E5C-DD415FEEC1F8}" name="退社" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{51313E63-3082-4AE5-B2A4-6172E1FA06CA}" name="出社" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{915ED5FD-6845-4FF5-A223-96273FADB058}" name="昼休憩開始" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{DFC7CEB7-BD22-4E98-A3CE-289F69461296}" name="昼休憩終了" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{75904702-0EF5-462B-8E04-AA40ECC56778}" name="超勤申請" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{CF5D3A8D-8568-4AC0-9E5C-DD415FEEC1F8}" name="退社" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -969,8 +969,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5779,14 +5779,12 @@
       </c>
       <c r="D207" s="13" t="str">
         <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"","8:50","")</f>
-        <v>8:50</v>
-      </c>
-      <c r="E207" s="13">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F207" s="13">
-        <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"",IF(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] &lt;= TIME(8, 50, 0),  MIN(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] - TIME(0,45,0), TIME(7,45,0)), MAX(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] - TIME(0,55,0), TIME(7,45,0))), "")</f>
-        <v>0.37152777777777779</v>
+        <v/>
+      </c>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13" t="str">
+        <f>IF(Timecard[[#This Row],[退社時間]]&lt;&gt;"",IF(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] &lt;= TIME(8, 50, 0),  MIN(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] - TIME(0,45,0), TIME(7,45,0)), MAX(Timecard[[#This Row],[退社時間]]-Timecard[[#This Row],[出社時間]] - TIME(0,55,0), TIME(7,45,0))), "")</f>
+        <v/>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6485,13 +6483,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:F239">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7700,13 +7698,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A2:G65">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>WEEKDAY($A2)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>WEEKDAY($A2)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$B2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
